--- a/biology/Botanique/Tokoinranta/Tokoinranta.xlsx
+++ b/biology/Botanique/Tokoinranta/Tokoinranta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La rive de Tokoi (en finnois : Tokoinranta) est un parc du quartier de Kallio  à Helsinki en Finlande.
 </t>
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tokoinranta est un parc du Kallio en bordure de la baie d'Eläintarhanlahti. 
-À l'est de Tokoinranta se trouve une petite aire de jeux pour enfants et un monument en bronze nommé Soihtu (français : la torche) dédié à Miina Sillanpää et sculpté par Aimo Tukiainen en 1968[1].
+À l'est de Tokoinranta se trouve une petite aire de jeux pour enfants et un monument en bronze nommé Soihtu (français : la torche) dédié à Miina Sillanpää et sculpté par Aimo Tukiainen en 1968.
 À la fin de chaque été, on monte dans le parc la tente Huvila, un espace pour les événements du Festival d'Helsinki.
 Le théâtre municipal d'Helsinki est situé au nord du parc. 
-Tokoinranta est nommée en 1968, en mémoire d'Oskari Tokoi, un homme politique et l'un des premiers dirigeants du mouvement ouvrier finlandais[2].
+Tokoinranta est nommée en 1968, en mémoire d'Oskari Tokoi, un homme politique et l'un des premiers dirigeants du mouvement ouvrier finlandais.
 </t>
         </is>
       </c>
